--- a/data/SG_S3.xlsx
+++ b/data/SG_S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitBit\estadistica-in1119\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\estadistica-in1119\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,6 +42,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,9 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +361,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,426 +384,427 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>240.3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>249.657719101521</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>202.027468147208</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>193.770664020304</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>242.2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>240.71422868020201</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>199.492602626262</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>199.37164980202999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>250.2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>257.51325596700099</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>189.73684859898501</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>202.45244394162299</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>243.6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>238.190321984772</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>200.83383155102001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>200.76902713959299</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>243.2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>243.760928238578</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>201.16410357070799</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>202.45244394162299</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>251.6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>235.71021998476999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>202.362883131979</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>200.76902713959299</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>252.2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>229.65713753807199</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>190.14193910405999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>201.353667040608</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>246.7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>241.68540957867901</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>190.14193910405999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>202.63148616751101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>242.1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>240.42613375380699</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>186.35565536040599</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>200.74006181979601</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>246.4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>244.764680398011</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>199.25074353299399</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>188.94421173603899</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>238</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>238.34544797461999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>201.94412394949501</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>188.94421173603899</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>240.9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>243.64582852538001</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>201.71232242132001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>198.92012078172601</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>244.7</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>246.23489164898999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>203.78903972588799</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>202.446596807106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>249.4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>244.164688470149</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>190.50569089847701</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>202.95538103553201</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>246.4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>246.58036889340201</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>194.437537847713</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>208.17451839593701</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>246.3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>238.517239324873</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>202.83613870050701</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>208.17451839593701</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>245.5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>239.55396555555399</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>202.75798096954099</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>203.474700081218</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>241.4</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>247.64145228426301</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>208.21756325380599</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>202.79250140609</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>246.9</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>239.21072732828301</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>198.774559714285</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>201.848586918781</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>244.7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>236.61182367676901</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>201.328534489898</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>204.06822863451799</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>245.5</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>236.70374093434199</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>200.49141535025501</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>203.38190814720701</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>245.3</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>237.54069323737301</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>198.69889779695501</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>203.88569280807999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>247.1</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>235.72534766751099</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>202.03135793434299</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>194.80042060913499</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>242.6</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>244.09221152525001</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>202.52344581726001</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>198.10705928172399</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>243</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>241.04598378787699</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>202.4129375533</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>202.15933999745999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>240.8</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>244.86328387373601</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>199.173651893401</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>202.79155347208101</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>246.5</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>238.232865233502</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>203.12202943654799</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>206.20065569543101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>242.2</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>241.23188053806899</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>201.88932775634399</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>206.20065569543101</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>238.1</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>223.33900217259</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>196.679409423858</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>203.40992416751101</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>239.8</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>235.40239890909001</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>204.67462317766299</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>203.561615527919</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>